--- a/API명세서.xlsx
+++ b/API명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DBD060-92B8-4A36-918A-37BE74B8299F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADC8FDA-B8E1-4663-AAD8-5B6FA15A76C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{37E88C2A-D5C6-46FA-BA11-4315FC8724AD}"/>
+    <workbookView xWindow="38280" yWindow="6555" windowWidth="29040" windowHeight="15720" xr2:uid="{37E88C2A-D5C6-46FA-BA11-4315FC8724AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 성공 여부 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/chatbot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,13 +106,173 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
-  "result" : "{id}의 챗봇 내역이 초기화되었습니다."
+  "result" : true/false
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플랫폼이 종료되면 챗봇 히스토리 초기화</t>
+    <t>서버 연결 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회원가입 성공 여부 확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+회원가입이 되면 true 반환
+id가 이미 있다면 fasle 반환</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인 성공 여부 확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+로그인이 되면 true 반환
+id 틀릴 시, "아이디 오류" 반환
+pw 틀릴 시, "비밀번호 오류" 반환</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>플랫폼이 종료되면 챗봇 히스토리 초기화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+초기화가 되면 true 반환
+id가 없다면 false 반환</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "result" : "접속 완료"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/get_history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "result": "히스토리"/false
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">사용자의 챗봇 히스토리 반환
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>히스토리 반환
+id가 없다면 false 반환</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">히스토리 형태
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Human과 AI가 \n을 기준으로 나뉘어짐 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히스토리 예시
+"Human: 해양쓰레기가 뭐야?\nAI: 해양쓰레기는 해양 및 바닷가에 유입, 투기, 방치된 폐기물로, 육상 기인과 해상 기인으로 나뉩니다. 주로 플라스틱, 유리병, 스티로폼 등이 포함됩니다.\n"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +293,23 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -184,7 +357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -193,6 +366,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9B5F26-D5F5-4A2B-A842-14FCF2E82FF9}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -521,9 +703,11 @@
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
     <col min="4" max="4" width="27.75" customWidth="1"/>
     <col min="5" max="5" width="38.9140625" customWidth="1"/>
+    <col min="6" max="6" width="36.9140625" customWidth="1"/>
+    <col min="7" max="7" width="59.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -539,73 +723,132 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="68" x14ac:dyDescent="0.45">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="68" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="68" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:7" ht="68" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/API명세서.xlsx
+++ b/API명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADC8FDA-B8E1-4663-AAD8-5B6FA15A76C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91B1C82-F29D-4C0F-AD44-0CF96F06C337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="6555" windowWidth="29040" windowHeight="15720" xr2:uid="{37E88C2A-D5C6-46FA-BA11-4315FC8724AD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +273,73 @@
   <si>
     <t>히스토리 예시
 "Human: 해양쓰레기가 뭐야?\nAI: 해양쓰레기는 해양 및 바닷가에 유입, 투기, 방치된 폐기물로, 육상 기인과 해상 기인으로 나뉩니다. 주로 플라스틱, 유리병, 스티로폼 등이 포함됩니다.\n"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/testchatbot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/testqna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "result": "테스트용 챗봇입니다."
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "문제": "드라마의 특성으로 거리가 먼 것은?",
+  "n1": "장소의 제한을 거의 받지 않는다.",
+  "n2": "음악을 통하여 분위기를 알 수 있다.",
+  "n3": "주로 문자를 통하여 내용이 전달된다.",
+  "n4": "연출가, 작가, 배우 등 여러 사람이 함께 만든다.",
+  "정답": "3"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "문제": "문제 내용",
+  "n1": "1번 선지",
+  "n2": "2번 선지",
+  "n3": "3번 선지",
+  "n4": "4번 선지",
+  "정답": "정답 번호"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LLM을 통한 교육용 문제를 반환
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>각 랜덤한 주제로 문제를 만들고 반환
+json 형식으로 문제가 만들어지지 않으면 false 반환</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/chatbot 테스트를 위한 더미값 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qna 테스트를 위한 더미값 반환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,7 +760,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -701,7 +768,7 @@
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="27.75" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
     <col min="5" max="5" width="38.9140625" customWidth="1"/>
     <col min="6" max="6" width="36.9140625" customWidth="1"/>
     <col min="7" max="7" width="59.58203125" customWidth="1"/>
@@ -834,15 +901,50 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D10" s="1"/>
+    <row r="8" spans="1:7" ht="136" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="68" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="221" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D11" s="1"/>

--- a/API명세서.xlsx
+++ b/API명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91B1C82-F29D-4C0F-AD44-0CF96F06C337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1477DF-DF64-4C97-8FE5-FB6169714409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="6555" windowWidth="29040" windowHeight="15720" xr2:uid="{37E88C2A-D5C6-46FA-BA11-4315FC8724AD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{37E88C2A-D5C6-46FA-BA11-4315FC8724AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,12 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-  "result" : "로그인 성공/실패"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/chatbot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,12 +91,6 @@
   </si>
   <si>
     <t>질문에 대한 답변 전송</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "result": "질문에 대한 답변"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -165,35 +153,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>로그인 성공 여부 확인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-로그인이 되면 true 반환
-id 틀릴 시, "아이디 오류" 반환
-pw 틀릴 시, "비밀번호 오류" 반환</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>플랫폼이 종료되면 챗봇 히스토리 초기화</t>
     </r>
     <r>
@@ -289,29 +248,12 @@
   </si>
   <si>
     <t>{
-  "result": "테스트용 챗봇입니다."
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
   "문제": "드라마의 특성으로 거리가 먼 것은?",
   "n1": "장소의 제한을 거의 받지 않는다.",
   "n2": "음악을 통하여 분위기를 알 수 있다.",
   "n3": "주로 문자를 통하여 내용이 전달된다.",
   "n4": "연출가, 작가, 배우 등 여러 사람이 함께 만든다.",
   "정답": "3"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "문제": "문제 내용",
-  "n1": "1번 선지",
-  "n2": "2번 선지",
-  "n3": "3번 선지",
-  "n4": "4번 선지",
-  "정답": "정답 번호"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,6 +282,76 @@
   </si>
   <si>
     <t>/qna 테스트를 위한 더미값 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "id" : "아이디"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "result" : "퀴즈 테마 번호/오류"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인 성공 여부 확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+로그인이 되면 퀴즈 테마를 반환
+id 틀릴 시, "아이디 오류" 반환
+pw 틀릴 시, "비밀번호 오류" 반환</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "q": "문제 내용",
+  "n1": "1번 선지",
+  "n2": "2번 선지",
+  "n3": "3번 선지",
+  "n4": "4번 선지",
+  "a": "정답 번호",
+  "t": "퀴즈 테마",
+  "s": "풀이",
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "result": "질문에 대한 답변"
+  "image": "바이너리 파일"
+  "link": "영상 링크"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "result": "테스트용 챗봇입니다.",
+  "image": "iVBORw0KGgoAAAANSUhEUgAAABAAAAAQCAYAAAAf8/+mAAAAGXRFWHRTb2Z0d2FyZQBBZG9iZSBJbWFnZVJlYWR5ccll",
+  "link": "https://www.youtube.com/"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9B5F26-D5F5-4A2B-A842-14FCF2E82FF9}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -768,7 +780,7 @@
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
     <col min="5" max="5" width="38.9140625" customWidth="1"/>
     <col min="6" max="6" width="36.9140625" customWidth="1"/>
     <col min="7" max="7" width="59.58203125" customWidth="1"/>
@@ -795,36 +807,36 @@
     </row>
     <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="68" x14ac:dyDescent="0.45">
@@ -838,27 +850,27 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="85" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="68" x14ac:dyDescent="0.45">
@@ -866,22 +878,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.45">
@@ -889,47 +901,50 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="136" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="170" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="68" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="136" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="221" x14ac:dyDescent="0.45">
@@ -937,13 +952,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
